--- a/medicine/Psychotrope/Union-Brauerei_(Brême)/Union-Brauerei_(Brême).xlsx
+++ b/medicine/Psychotrope/Union-Brauerei_(Brême)/Union-Brauerei_(Brême).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Union-Brauerei_(Br%C3%AAme)</t>
+          <t>Union-Brauerei_(Brême)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’Union-Brauerei est une brasserie à Brême.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Union-Brauerei_(Br%C3%AAme)</t>
+          <t>Union-Brauerei_(Brême)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie est fondée en 1907 dans le quartier de Walle sous le nom d'Union. Le permis d'exploitation est accordé le 13 juin 1907. Jusqu'en mars 1908, on établit au coin de Holsteiner Straße et Theodorstraße une brasserie avec un appartement pour le maître brasseur, une salle des machines et une chaufferie, un bâtiment d'embouteillage (Kontor). La brasserie est d'abord exploitée en GmbH et à partir du 20 septembre 1923 en tant que société par actions.
 Pendant la Seconde Guerre mondiale, le 16e commissariat de police est temporairement installé dans le bâtiment administratif de la brasserie après un raid aérien le 18 août 1944, avant qu'il soit détruit par une bombe explosive le 24 février 1945. Dès 1945, la production reprend sous administration militaire américaine, rapidement la société retrouve sa situation économique d'avant la guerre.
